--- a/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/1_Result_Tables/6_naive_forecaster_qoq_evaluations_ifoCASTset_naive_qoq_full/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.001081028562159771</v>
+        <v>0.03483647684766893</v>
       </c>
       <c r="C2">
-        <v>0.9951381883924578</v>
+        <v>0.9165303275553447</v>
       </c>
       <c r="D2">
-        <v>4.279624655978415</v>
+        <v>4.351217448857517</v>
       </c>
       <c r="E2">
-        <v>2.068725369878374</v>
+        <v>2.085957202067558</v>
       </c>
       <c r="F2">
-        <v>2.092101254127734</v>
+        <v>2.108713024898596</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04200701502569879</v>
+        <v>-0.001081028562159771</v>
       </c>
       <c r="C3">
-        <v>0.8983086334741255</v>
+        <v>0.9951381883924578</v>
       </c>
       <c r="D3">
-        <v>4.062266810329108</v>
+        <v>4.279624655978415</v>
       </c>
       <c r="E3">
-        <v>2.015506589006622</v>
+        <v>2.068725369878374</v>
       </c>
       <c r="F3">
-        <v>2.038365155026806</v>
+        <v>2.092101254127734</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0608977890516556</v>
+        <v>0.04200701502569879</v>
       </c>
       <c r="C4">
-        <v>0.9877582190866548</v>
+        <v>0.8983086334741255</v>
       </c>
       <c r="D4">
-        <v>4.386003635180001</v>
+        <v>4.062266810329108</v>
       </c>
       <c r="E4">
-        <v>2.094278786403568</v>
+        <v>2.015506589006622</v>
       </c>
       <c r="F4">
-        <v>2.118167947510473</v>
+        <v>2.038365155026806</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03569355081550164</v>
+        <v>0.0608977890516556</v>
       </c>
       <c r="C5">
-        <v>0.9204210319956506</v>
+        <v>0.9877582190866548</v>
       </c>
       <c r="D5">
-        <v>4.218636085500242</v>
+        <v>4.386003635180001</v>
       </c>
       <c r="E5">
-        <v>2.053931859994445</v>
+        <v>2.094278786403568</v>
       </c>
       <c r="F5">
-        <v>2.078514985536418</v>
+        <v>2.118167947510473</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08760455554852703</v>
+        <v>0.03569355081550164</v>
       </c>
       <c r="C6">
-        <v>0.9772728805259139</v>
+        <v>0.9204210319956506</v>
       </c>
       <c r="D6">
-        <v>4.379155333072577</v>
+        <v>4.218636085500242</v>
       </c>
       <c r="E6">
-        <v>2.092643145180892</v>
+        <v>2.053931859994445</v>
       </c>
       <c r="F6">
-        <v>2.116782415434499</v>
+        <v>2.078514985536418</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0508651513124319</v>
+        <v>0.08760455554852703</v>
       </c>
       <c r="C7">
-        <v>0.9294545411783168</v>
+        <v>0.9772728805259139</v>
       </c>
       <c r="D7">
-        <v>4.424985632556038</v>
+        <v>4.379155333072577</v>
       </c>
       <c r="E7">
-        <v>2.103564981776422</v>
+        <v>2.092643145180892</v>
       </c>
       <c r="F7">
-        <v>2.129740171690145</v>
+        <v>2.116782415434499</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09339624656607147</v>
+        <v>0.0508651513124319</v>
       </c>
       <c r="C8">
-        <v>0.9741651770720662</v>
+        <v>0.9294545411783168</v>
       </c>
       <c r="D8">
-        <v>4.567287230580959</v>
+        <v>4.424985632556038</v>
       </c>
       <c r="E8">
-        <v>2.137121248451046</v>
+        <v>2.103564981776422</v>
       </c>
       <c r="F8">
-        <v>2.162990196930268</v>
+        <v>2.129740171690145</v>
       </c>
       <c r="G8">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05307864261461459</v>
+        <v>0.09339624656607147</v>
       </c>
       <c r="C9">
-        <v>0.9369476669721406</v>
+        <v>0.9741651770720662</v>
       </c>
       <c r="D9">
-        <v>4.578126025400367</v>
+        <v>4.567287230580959</v>
       </c>
       <c r="E9">
-        <v>2.139655585696064</v>
+        <v>2.137121248451046</v>
       </c>
       <c r="F9">
-        <v>2.167709776361598</v>
+        <v>2.162990196930268</v>
       </c>
       <c r="G9">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07834837055508494</v>
+        <v>0.05307864261461459</v>
       </c>
       <c r="C10">
-        <v>0.9648439873790242</v>
+        <v>0.9369476669721406</v>
       </c>
       <c r="D10">
-        <v>4.734664045991183</v>
+        <v>4.578126025400367</v>
       </c>
       <c r="E10">
-        <v>2.175928318210686</v>
+        <v>2.139655585696064</v>
       </c>
       <c r="F10">
-        <v>2.204512080159149</v>
+        <v>2.167709776361598</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.02184029609974023</v>
+        <v>0.07834837055508494</v>
       </c>
       <c r="C11">
-        <v>0.8679329775025648</v>
+        <v>0.9648439873790242</v>
       </c>
       <c r="D11">
-        <v>4.629417210409839</v>
+        <v>4.734664045991183</v>
       </c>
       <c r="E11">
-        <v>2.151608052227412</v>
+        <v>2.175928318210686</v>
       </c>
       <c r="F11">
-        <v>2.182016417559947</v>
+        <v>2.204512080159149</v>
       </c>
       <c r="G11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
